--- a/Resources/1990/Basic_Percentile_1990.xlsx
+++ b/Resources/1990/Basic_Percentile_1990.xlsx
@@ -1198,40 +1198,40 @@
     <t>ferredu01</t>
   </si>
   <si>
-    <t>Hakeem Olajuwon*</t>
-  </si>
-  <si>
-    <t>Michael Jordan*</t>
-  </si>
-  <si>
-    <t>Larry Bird*</t>
+    <t>Hakeem Olajuwon</t>
+  </si>
+  <si>
+    <t>Michael Jordan</t>
+  </si>
+  <si>
+    <t>Larry Bird</t>
   </si>
   <si>
     <t>Ron Harper</t>
   </si>
   <si>
-    <t>Scottie Pippen*</t>
-  </si>
-  <si>
-    <t>David Robinson*</t>
-  </si>
-  <si>
-    <t>Clyde Drexler*</t>
-  </si>
-  <si>
-    <t>Charles Barkley*</t>
-  </si>
-  <si>
-    <t>Patrick Ewing*</t>
-  </si>
-  <si>
-    <t>Magic Johnson*</t>
-  </si>
-  <si>
-    <t>Karl Malone*</t>
-  </si>
-  <si>
-    <t>Chris Mullin*</t>
+    <t>Scottie Pippen</t>
+  </si>
+  <si>
+    <t>David Robinson</t>
+  </si>
+  <si>
+    <t>Clyde Drexler</t>
+  </si>
+  <si>
+    <t>Charles Barkley</t>
+  </si>
+  <si>
+    <t>Patrick Ewing</t>
+  </si>
+  <si>
+    <t>Magic Johnson</t>
+  </si>
+  <si>
+    <t>Karl Malone</t>
+  </si>
+  <si>
+    <t>Chris Mullin</t>
   </si>
   <si>
     <t>Terry Cummings</t>
@@ -1243,7 +1243,7 @@
     <t>John Williams</t>
   </si>
   <si>
-    <t>Dominique Wilkins*</t>
+    <t>Dominique Wilkins</t>
   </si>
   <si>
     <t>Larry Nance</t>
@@ -1252,7 +1252,7 @@
     <t>Jerome Kersey</t>
   </si>
   <si>
-    <t>James Worthy*</t>
+    <t>James Worthy</t>
   </si>
   <si>
     <t>Fat Lever</t>
@@ -1330,7 +1330,7 @@
     <t>Alvin Robertson</t>
   </si>
   <si>
-    <t>Isiah Thomas*</t>
+    <t>Isiah Thomas</t>
   </si>
   <si>
     <t>Otis Smith</t>
@@ -1339,7 +1339,7 @@
     <t>Hot Rod Williams</t>
   </si>
   <si>
-    <t>Mitch Richmond*</t>
+    <t>Mitch Richmond</t>
   </si>
   <si>
     <t>Tim Hardaway</t>
@@ -1357,7 +1357,7 @@
     <t>Danny Ainge</t>
   </si>
   <si>
-    <t>John Stockton*</t>
+    <t>John Stockton</t>
   </si>
   <si>
     <t>Kevin Johnson</t>
@@ -1366,10 +1366,10 @@
     <t>Horace Grant</t>
   </si>
   <si>
-    <t>Kevin McHale*</t>
-  </si>
-  <si>
-    <t>Moses Malone*</t>
+    <t>Kevin McHale</t>
+  </si>
+  <si>
+    <t>Moses Malone</t>
   </si>
   <si>
     <t>Armen Gilliam</t>
@@ -1399,7 +1399,7 @@
     <t>Gerald Wilkins</t>
   </si>
   <si>
-    <t>Reggie Miller*</t>
+    <t>Reggie Miller</t>
   </si>
   <si>
     <t>Dennis Hopson</t>
@@ -1534,16 +1534,16 @@
     <t>Thurl Bailey</t>
   </si>
   <si>
-    <t>Robert Parish*</t>
-  </si>
-  <si>
-    <t>Bernard King*</t>
+    <t>Robert Parish</t>
+  </si>
+  <si>
+    <t>Bernard King</t>
   </si>
   <si>
     <t>Blair Rasmussen</t>
   </si>
   <si>
-    <t>Maurice Cheeks*</t>
+    <t>Maurice Cheeks</t>
   </si>
   <si>
     <t>Roy Hinson</t>
@@ -1558,7 +1558,7 @@
     <t>Michael Adams</t>
   </si>
   <si>
-    <t>Alex English*</t>
+    <t>Alex English</t>
   </si>
   <si>
     <t>Herb Williams</t>
@@ -1567,7 +1567,7 @@
     <t>Harold Pressley</t>
   </si>
   <si>
-    <t>Dennis Rodman*</t>
+    <t>Dennis Rodman</t>
   </si>
   <si>
     <t>Mark Alarie</t>
@@ -1615,7 +1615,7 @@
     <t>Bill Cartwright</t>
   </si>
   <si>
-    <t>Dennis Johnson*</t>
+    <t>Dennis Johnson</t>
   </si>
   <si>
     <t>Sleepy Floyd</t>
@@ -1672,7 +1672,7 @@
     <t>Ricky Pierce</t>
   </si>
   <si>
-    <t>Joe Dumars*</t>
+    <t>Joe Dumars</t>
   </si>
   <si>
     <t>Cliff Levingston</t>
@@ -1705,7 +1705,7 @@
     <t>Sedale Threatt</t>
   </si>
   <si>
-    <t>Sarunas Marciulionis*</t>
+    <t>Sarunas Marciulionis</t>
   </si>
   <si>
     <t>Clifford Robinson</t>
@@ -1759,7 +1759,7 @@
     <t>James Edwards</t>
   </si>
   <si>
-    <t>Adrian Dantley*</t>
+    <t>Adrian Dantley</t>
   </si>
   <si>
     <t>Chuck Nevitt</t>
@@ -1771,7 +1771,7 @@
     <t>Ledell Eackles</t>
   </si>
   <si>
-    <t>Ralph Sampson*</t>
+    <t>Ralph Sampson</t>
   </si>
   <si>
     <t>Greg Kite</t>
@@ -2182,7 +2182,7 @@
     <t>Randy White</t>
   </si>
   <si>
-    <t>Drazen Petrovic*</t>
+    <t>Drazen Petrovic</t>
   </si>
   <si>
     <t>Mel McCants</t>
